--- a/data/all-lga-clean.xlsx
+++ b/data/all-lga-clean.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsharma/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsharma/Downloads/fit3179-a2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021AA997-6B30-D347-8E4A-C87D30353171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2BB874-B57C-7C43-8D01-752D777C1336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -239,7 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -549,10 +562,15 @@
   <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
